--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -2,46 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEAD3DB-243F-4AD5-A325-8C69C8C2A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C890924E-50CE-4D94-A43C-86C0DB9FAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68C4B27D-9847-4ADA-AFD0-CE0A81926B57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="patient_details_and_exercises" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>number of exercises</t>
   </si>
   <si>
     <t>bend_elbows_ball</t>
@@ -59,25 +49,46 @@
     <t>open_arms_above_head_ball</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Number_of_exercises</t>
-  </si>
-  <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
+    <t>open_arms_with_rubber_band</t>
+  </si>
+  <si>
+    <t>open_arms_and_up_with_rubber_band</t>
+  </si>
+  <si>
+    <t>up_with_rubber_band_and_lean_both_sides</t>
+  </si>
+  <si>
+    <t>bend_elbows_stick</t>
+  </si>
+  <si>
+    <t>bend_elbows_and_up_stick</t>
+  </si>
+  <si>
+    <t>arms_up_and_down_stick</t>
+  </si>
+  <si>
+    <t>switch_with_stick</t>
+  </si>
+  <si>
+    <t>hands_behind_and_lean_notool</t>
+  </si>
+  <si>
+    <t>right_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>left_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>raising_right_and_left_hand_alternately_notool</t>
+  </si>
+  <si>
+    <t>אלי</t>
   </si>
   <si>
     <t>כהן</t>
   </si>
   <si>
-    <t>לוי</t>
-  </si>
-  <si>
-    <t>אלי</t>
+    <t>11223344</t>
   </si>
   <si>
     <t>יעקב</t>
@@ -87,13 +98,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,12 +123,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -119,15 +152,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -140,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,44 +183,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -215,31 +248,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -267,26 +283,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -295,234 +294,362 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA20653-FB14-4DCA-AEBA-A22241F5A1CB}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>314808981</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>11223344</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C890924E-50CE-4D94-A43C-86C0DB9FAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A9A48-0392-4A6D-8711-ACF61EE805D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,123 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A9A48-0392-4A6D-8711-ACF61EE805D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_details_and_exercises" sheetId="1" r:id="rId1"/>
+    <sheet name="patient_details_and_exercises" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>number of exercises</t>
-  </si>
-  <si>
-    <t>bend_elbows_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_forward_turn_ball</t>
-  </si>
-  <si>
-    <t>open_arms_and_forward_ball</t>
-  </si>
-  <si>
-    <t>open_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>open_arms_with_rubber_band</t>
-  </si>
-  <si>
-    <t>open_arms_and_up_with_rubber_band</t>
-  </si>
-  <si>
-    <t>up_with_rubber_band_and_lean_both_sides</t>
-  </si>
-  <si>
-    <t>bend_elbows_stick</t>
-  </si>
-  <si>
-    <t>bend_elbows_and_up_stick</t>
-  </si>
-  <si>
-    <t>arms_up_and_down_stick</t>
-  </si>
-  <si>
-    <t>switch_with_stick</t>
-  </si>
-  <si>
-    <t>hands_behind_and_lean_notool</t>
-  </si>
-  <si>
-    <t>right_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>left_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>raising_right_and_left_hand_alternately_notool</t>
-  </si>
-  <si>
-    <t>אלי</t>
-  </si>
-  <si>
-    <t>כהן</t>
-  </si>
-  <si>
-    <t>11223344</t>
-  </si>
-  <si>
-    <t>יעקב</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,88 +435,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>first name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>last name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>number of exercises</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_ball</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>raise_arms_above_head_ball</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>raise_arms_forward_turn_ball</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_and_forward_ball</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_above_head_ball</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_with_band</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_and_up_with_band</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>up_with_band_and_lean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_stick</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_and_up_stick</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>arms_up_and_down_stick</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>switch_with_stick</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>hands_behind_and_lean_notool</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>right_hand_up_and_bend_notool</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>left_hand_up_and_bend_notool</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>raising_hands_diagonally_notool</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>314808981</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>אלי</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>15</v>
       </c>
       <c r="E2" t="b">
@@ -561,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -591,17 +616,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>יעקב</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="b">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,41 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E08578-99CE-47F7-B1F3-BE6B657A5FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_details_and_exercises" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="patient_details_and_exercises" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>number of exercises</t>
+  </si>
+  <si>
+    <t>bend_elbows_ball</t>
+  </si>
+  <si>
+    <t>raise_arms_above_head_ball</t>
+  </si>
+  <si>
+    <t>raise_arms_forward_turn_ball</t>
+  </si>
+  <si>
+    <t>open_arms_and_forward_ball</t>
+  </si>
+  <si>
+    <t>open_arms_above_head_ball</t>
+  </si>
+  <si>
+    <t>open_arms_with_band</t>
+  </si>
+  <si>
+    <t>open_arms_and_up_with_band</t>
+  </si>
+  <si>
+    <t>up_with_band_and_lean</t>
+  </si>
+  <si>
+    <t>bend_elbows_stick</t>
+  </si>
+  <si>
+    <t>bend_elbows_and_up_stick</t>
+  </si>
+  <si>
+    <t>arms_up_and_down_stick</t>
+  </si>
+  <si>
+    <t>switch_with_stick</t>
+  </si>
+  <si>
+    <t>hands_behind_and_lean_notool</t>
+  </si>
+  <si>
+    <t>right_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>left_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>raising_hands_diagonally_notool</t>
+  </si>
+  <si>
+    <t>אלי</t>
+  </si>
+  <si>
+    <t>כהן</t>
+  </si>
+  <si>
+    <t>11223344</t>
+  </si>
+  <si>
+    <t>יעקב</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,83 +151,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,152 +458,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>first name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>last name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>number of exercises</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_ball</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>raise_arms_above_head_ball</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>raise_arms_forward_turn_ball</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_and_forward_ball</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_above_head_ball</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_with_band</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_and_up_with_band</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>up_with_band_and_lean</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_stick</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_and_up_stick</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>arms_up_and_down_stick</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>switch_with_stick</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>hands_behind_and_lean_notool</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>right_hand_up_and_bend_notool</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>left_hand_up_and_bend_notool</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>raising_hands_diagonally_notool</t>
-        </is>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>314808981</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>אלי</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>כהן</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -616,23 +591,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>11223344</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>יעקב</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>כהן</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="b">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,123 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E08578-99CE-47F7-B1F3-BE6B657A5FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_details_and_exercises" sheetId="1" r:id="rId1"/>
+    <sheet name="patient_details_and_exercises" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>number of exercises</t>
-  </si>
-  <si>
-    <t>bend_elbows_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_forward_turn_ball</t>
-  </si>
-  <si>
-    <t>open_arms_and_forward_ball</t>
-  </si>
-  <si>
-    <t>open_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>open_arms_with_band</t>
-  </si>
-  <si>
-    <t>open_arms_and_up_with_band</t>
-  </si>
-  <si>
-    <t>up_with_band_and_lean</t>
-  </si>
-  <si>
-    <t>bend_elbows_stick</t>
-  </si>
-  <si>
-    <t>bend_elbows_and_up_stick</t>
-  </si>
-  <si>
-    <t>arms_up_and_down_stick</t>
-  </si>
-  <si>
-    <t>switch_with_stick</t>
-  </si>
-  <si>
-    <t>hands_behind_and_lean_notool</t>
-  </si>
-  <si>
-    <t>right_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>left_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>raising_hands_diagonally_notool</t>
-  </si>
-  <si>
-    <t>אלי</t>
-  </si>
-  <si>
-    <t>כהן</t>
-  </si>
-  <si>
-    <t>11223344</t>
-  </si>
-  <si>
-    <t>יעקב</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,88 +435,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>first name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>last name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>number of exercises</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_ball</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>raise_arms_above_head_ball</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>raise_arms_forward_turn_ball</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_and_forward_ball</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_above_head_ball</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_with_band</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_and_up_with_band</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>up_with_band_and_lean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_stick</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_and_up_stick</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>arms_up_and_down_stick</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>switch_with_stick</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>hands_behind_and_lean_notool</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>right_hand_up_and_bend_notool</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>left_hand_up_and_bend_notool</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>raising_hands_diagonally_notool</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>314808981</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>אלי</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="b">
@@ -591,17 +616,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>יעקב</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="b">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -9,7 +9,7 @@
     <sheet name="patient_details_and_exercises" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -440,10 +440,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -466,85 +466,90 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>number of exercises</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>bend_elbows_ball</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>raise_arms_above_head_ball</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>raise_arms_forward_turn_ball</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>open_arms_and_forward_ball</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>open_arms_above_head_ball</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_arms_with_band</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>open_arms_and_up_with_band</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>up_with_band_and_lean</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>bend_elbows_stick</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>bend_elbows_and_up_stick</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>arms_up_and_down_stick</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>switch_with_stick</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hands_behind_and_lean_notool</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>right_hand_up_and_bend_notool</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>left_hand_up_and_bend_notool</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>raising_hands_diagonally_notool</t>
         </is>
@@ -564,10 +569,12 @@
           <t>כהן</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="b">
@@ -583,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -598,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -613,14 +620,15 @@
         <v>0</v>
       </c>
       <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>11223344</t>
-        </is>
+      <c r="A3" t="n">
+        <v>11223344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -632,14 +640,16 @@
           <t>כהן</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -681,6 +691,9 @@
         <v>0</v>
       </c>
       <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,41 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7FD0F5-BB34-491D-8CC1-355828490579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_details_and_exercises" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="patient_details_and_exercises" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>number of exercises</t>
+  </si>
+  <si>
+    <t>bend_elbows_ball</t>
+  </si>
+  <si>
+    <t>raise_arms_above_head_ball</t>
+  </si>
+  <si>
+    <t>raise_arms_forward_turn_ball</t>
+  </si>
+  <si>
+    <t>open_arms_and_forward_ball</t>
+  </si>
+  <si>
+    <t>open_arms_above_head_ball</t>
+  </si>
+  <si>
+    <t>open_arms_with_band</t>
+  </si>
+  <si>
+    <t>open_arms_and_up_with_band</t>
+  </si>
+  <si>
+    <t>up_with_band_and_lean</t>
+  </si>
+  <si>
+    <t>bend_elbows_stick</t>
+  </si>
+  <si>
+    <t>bend_elbows_and_up_stick</t>
+  </si>
+  <si>
+    <t>arms_up_and_down_stick</t>
+  </si>
+  <si>
+    <t>switch_with_stick</t>
+  </si>
+  <si>
+    <t>hands_behind_and_lean_notool</t>
+  </si>
+  <si>
+    <t>right_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>left_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>raising_hands_diagonally_notool</t>
+  </si>
+  <si>
+    <t>אלי</t>
+  </si>
+  <si>
+    <t>כהן</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>יעקב</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,83 +154,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,165 +461,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>first name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>last name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>number of exercises</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_ball</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>raise_arms_above_head_ball</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>raise_arms_forward_turn_ball</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_and_forward_ball</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_above_head_ball</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_with_band</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_and_up_with_band</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>up_with_band_and_lean</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_stick</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_and_up_stick</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>arms_up_and_down_stick</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>switch_with_stick</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>hands_behind_and_lean_notool</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>right_hand_up_and_bend_notool</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>left_hand_up_and_bend_notool</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>raising_hands_diagonally_notool</t>
-        </is>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>314808981</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>אלי</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>כהן</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -605,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -626,26 +600,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>11223344</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>יעקב</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>כהן</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="b">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,126 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7FD0F5-BB34-491D-8CC1-355828490579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_details_and_exercises" sheetId="1" r:id="rId1"/>
+    <sheet name="patient_details_and_exercises" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="patients_history_of_trainings" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>number of exercises</t>
-  </si>
-  <si>
-    <t>bend_elbows_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_forward_turn_ball</t>
-  </si>
-  <si>
-    <t>open_arms_and_forward_ball</t>
-  </si>
-  <si>
-    <t>open_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>open_arms_with_band</t>
-  </si>
-  <si>
-    <t>open_arms_and_up_with_band</t>
-  </si>
-  <si>
-    <t>up_with_band_and_lean</t>
-  </si>
-  <si>
-    <t>bend_elbows_stick</t>
-  </si>
-  <si>
-    <t>bend_elbows_and_up_stick</t>
-  </si>
-  <si>
-    <t>arms_up_and_down_stick</t>
-  </si>
-  <si>
-    <t>switch_with_stick</t>
-  </si>
-  <si>
-    <t>hands_behind_and_lean_notool</t>
-  </si>
-  <si>
-    <t>right_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>left_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>raising_hands_diagonally_notool</t>
-  </si>
-  <si>
-    <t>אלי</t>
-  </si>
-  <si>
-    <t>כהן</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>יעקב</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,24 +70,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,94 +436,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>first name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>last name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>number of exercises</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_ball</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>raise_arms_above_head_ball</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>raise_arms_forward_turn_ball</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_and_forward_ball</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_above_head_ball</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_with_band</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>open_arms_and_up_with_band</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>up_with_band_and_lean</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_stick</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>bend_elbows_and_up_stick</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>arms_up_and_down_stick</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>switch_with_stick</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>hands_behind_and_lean_notool</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>right_hand_up_and_bend_notool</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>left_hand_up_and_bend_notool</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>raising_hands_diagonally_notool</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>314808981</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>אלי</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="b">
@@ -600,20 +627,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>11223344</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>יעקב</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="b">
@@ -663,6 +696,57 @@
       </c>
       <c r="U3" t="b">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>314808981</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>315454 09-04-2024 16-19-36.xlsx</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315454 09-04-2024 16-22-34.xlsx</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>315454 09-04-2024 16-24-08.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11223344</v>
       </c>
     </row>
   </sheetData>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,48 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0CFE1E-AC7E-4AD4-B513-E8A15AEF0127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_details_and_exercises" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="patients_history_of_trainings" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="patient_details_and_exercises" sheetId="1" r:id="rId1"/>
+    <sheet name="patients_history_of_trainings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>number of exercises</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>points in current level</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>bend_elbows_ball</t>
+  </si>
+  <si>
+    <t>raise_arms_above_head_ball</t>
+  </si>
+  <si>
+    <t>raise_arms_forward_turn_ball</t>
+  </si>
+  <si>
+    <t>open_arms_and_forward_ball</t>
+  </si>
+  <si>
+    <t>open_arms_above_head_ball</t>
+  </si>
+  <si>
+    <t>open_arms_with_band</t>
+  </si>
+  <si>
+    <t>open_arms_and_up_with_band</t>
+  </si>
+  <si>
+    <t>up_with_band_and_lean</t>
+  </si>
+  <si>
+    <t>bend_elbows_stick</t>
+  </si>
+  <si>
+    <t>bend_elbows_and_up_stick</t>
+  </si>
+  <si>
+    <t>arms_up_and_down_stick</t>
+  </si>
+  <si>
+    <t>switch_with_stick</t>
+  </si>
+  <si>
+    <t>hands_behind_and_lean_notool</t>
+  </si>
+  <si>
+    <t>right_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>left_hand_up_and_bend_notool</t>
+  </si>
+  <si>
+    <t>raising_hands_diagonally_notool</t>
+  </si>
+  <si>
+    <t>אלי</t>
+  </si>
+  <si>
+    <t>כהן</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>yaelszn@gmail.com</t>
+  </si>
+  <si>
+    <t>יעקב</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,88 +183,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,162 +512,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>first name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>last name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>number of exercises</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_ball</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>raise_arms_above_head_ball</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>raise_arms_forward_turn_ball</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_and_forward_ball</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_above_head_ball</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_with_band</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>open_arms_and_up_with_band</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>up_with_band_and_lean</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_stick</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>bend_elbows_and_up_stick</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>arms_up_and_down_stick</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>switch_with_stick</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>hands_behind_and_lean_notool</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>right_hand_up_and_bend_notool</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>left_hand_up_and_bend_notool</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>raising_hands_diagonally_notool</t>
-        </is>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>314808981</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>אלי</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>כהן</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -626,40 +667,37 @@
       <c r="U2" t="b">
         <v>0</v>
       </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>11223344</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>יעקב</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>כהן</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -695,58 +733,50 @@
         <v>0</v>
       </c>
       <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>314808981</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>315454 09-04-2024 16-19-36.xlsx</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>315454 09-04-2024 16-22-34.xlsx</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>315454 09-04-2024 16-24-08.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11223344</v>
       </c>
     </row>
   </sheetData>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -442,13 +442,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="18.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
@@ -694,6 +694,258 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>64745</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>kghu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>kugbk</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ray@gmail.com</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4532</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>hfh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jhhg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>yao@gmail.com</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5436</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bdgb</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nghn</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>43372</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dfacfa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dc s s</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4327</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>frwf</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>wfeFE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dca</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>dscwc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>43817</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fvsd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vfs</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -708,13 +960,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="16.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="25.75" bestFit="1" customWidth="1" min="3" max="3"/>
@@ -815,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -916,23 +1168,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>43372</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -971,7 +1223,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>4327</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -1026,7 +1278,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -1069,12 +1321,67 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>43817</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1089,13 +1396,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col width="9.75" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1105,23 +1415,75 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
+      <c r="A2" t="n">
+        <v>314808981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>43372</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>4327</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>29-05-2024 10-25-12</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29-05-2024 10-29-38</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>29-05-2024 10-42-11</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30-05-2024 09-33-22</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>01-06-2024 15-54-04</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>43817</t>
         </is>
       </c>
     </row>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -444,13 +444,14 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="18.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="14.4140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,7 +524,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -907,7 +908,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -962,7 +963,7 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1282,7 +1283,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1321,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1396,10 +1397,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1418,6 +1419,14 @@
       <c r="A2" t="n">
         <v>314808981</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01-06-2024 19-14-30</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1478,6 +1487,38 @@
       </c>
       <c r="K5" t="n">
         <v>0.3</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>01-06-2024 17-22-40</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>01-06-2024 17-29-46</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>01-06-2024 18-25-53</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>01-06-2024 18-30-48</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -70,11 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +449,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -591,362 +598,70 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
+      <c r="A5" t="n">
+        <v>55581599</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gdf</t>
+          <t>רותי</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gtdf</t>
+          <t>שניידמן</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>yaelszn@post.bgu.ac.il</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>-68</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>רונן</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>קריטנברג</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ya@gmail.com</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>rfwfd</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>cwef</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>yae@gmail.com</t>
+          <t>yaelszn@post.bgu.ac.il</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6578</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>כדגהה</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>הדגהדג435</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>yae@gmail.com</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>64745</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>kghu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kugbk</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ray@gmail.com</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4532</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>hfh</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>jhhg</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>yao@gmail.com</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5436</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>bdgb</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>nghn</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>y@gmail.com</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>43372</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>dfacfa</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>dc s s</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>y@gmail.com</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4327</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>frwf</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>wfeFE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Y@gmail.com</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4382</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>dca</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>dscwc</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>y@gmail.com</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>43817</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>fvsd</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>vfs</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>y@gmail.com</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -963,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1068,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1080,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1277,13 +992,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4382</t>
-        </is>
+      <c r="A6" t="n">
+        <v>55581599</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1292,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1301,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1313,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -1397,10 +1110,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1409,7 +1122,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
@@ -1419,14 +1132,6 @@
       <c r="A2" t="n">
         <v>314808981</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>01-06-2024 19-14-30</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1443,82 +1148,195 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4382</t>
-        </is>
+      <c r="A5" t="n">
+        <v>55581599</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29-05-2024 10-25-12</t>
+          <t>25-06-2024 13-26-14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29-05-2024 10-29-38</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>29-05-2024 10-42-11</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25-06-2024 13-32-37</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30-05-2024 09-33-22</t>
+          <t>25-06-2024 13-36-51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>01-06-2024 15-54-04</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>01-06-2024 17-22-40</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>25-06-2024 13-39-31</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>01-06-2024 17-29-46</t>
+          <t>25-06-2024 17-03-28</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>01-06-2024 18-25-53</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>01-06-2024 18-30-48</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>25-06-2024 17-09-07</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
       </c>
       <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>25-06-2024 17-58-29</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-06-27</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-24-10</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-29-43</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-47-51</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-17-36</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-38-56</t>
+        </is>
+      </c>
+      <c r="AM5" t="n">
         <v>0.2</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-57-11</t>
+        </is>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-28-07</t>
+        </is>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-44-04</t>
+        </is>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-58-27</t>
+        </is>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1526,6 +1344,176 @@
         <is>
           <t>43817</t>
         </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-19-02</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-22-12</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-24-54</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-30-28</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-33-18</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-35-51</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-38-21</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-41-38</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-45-57</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-47-51</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-49-48</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-53-09</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-57-57</t>
+        </is>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>28-06-2024 16-00-14</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>28-06-2024 16-02-12</t>
+        </is>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -451,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-68</v>
+        <v>-57.5</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -678,12 +678,13 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
+    <col width="9.75" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="25.75" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
@@ -780,25 +781,25 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -813,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -1005,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1110,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:CJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1132,6 +1133,17 @@
       <c r="A2" t="n">
         <v>314808981</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15-07-2024 12-34-17</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1336,6 +1348,138 @@
         <v>0.6</v>
       </c>
       <c r="AZ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>02-07-2024 08-11-51</t>
+        </is>
+      </c>
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>02-07-2024 09-46-42</t>
+        </is>
+      </c>
+      <c r="BE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>08-07-2024 10-47-17</t>
+        </is>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-06-12</t>
+        </is>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-15-13</t>
+        </is>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-35-46</t>
+        </is>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-50-59</t>
+        </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-54-41</t>
+        </is>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>09-07-2024 09-44-58</t>
+        </is>
+      </c>
+      <c r="BZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>09-07-2024 11-26-49</t>
+        </is>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>15-07-2024 12-29-21</t>
+        </is>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>15-07-2024 13-09-46</t>
+        </is>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CJ5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="patients_exercises" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="patients_history_of_trainings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -617,7 +618,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -678,7 +679,7 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1000,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1015,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1024,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1111,10 +1112,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1174,313 +1175,36 @@
       <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>560</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>25-06-2024 13-32-37</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>657</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>25-06-2024 13-36-51</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>25-06-2024 13-39-31</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>25-06-2024 17-03-28</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>25-06-2024 17-09-07</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>25-06-2024 17-58-29</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-06-27</t>
-        </is>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-24-10</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-29-43</t>
-        </is>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-47-51</t>
-        </is>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>26-06-2024 11-17-36</t>
-        </is>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>26-06-2024 11-38-56</t>
-        </is>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>26-06-2024 11-57-11</t>
-        </is>
-      </c>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>26-06-2024 16-28-07</t>
-        </is>
-      </c>
-      <c r="AS5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>26-06-2024 16-44-04</t>
-        </is>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>26-06-2024 16-58-27</t>
-        </is>
-      </c>
-      <c r="AY5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>02-07-2024 08-11-51</t>
-        </is>
-      </c>
-      <c r="BB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>02-07-2024 09-46-42</t>
-        </is>
-      </c>
-      <c r="BE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>08-07-2024 10-47-17</t>
-        </is>
-      </c>
-      <c r="BH5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-06-12</t>
-        </is>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-15-13</t>
-        </is>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-35-46</t>
-        </is>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-50-59</t>
-        </is>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-54-41</t>
-        </is>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY5" t="inlineStr">
-        <is>
-          <t>09-07-2024 09-44-58</t>
-        </is>
-      </c>
-      <c r="BZ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>09-07-2024 11-26-49</t>
-        </is>
-      </c>
-      <c r="CC5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>5</v>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>15-07-2024 12-29-21</t>
-        </is>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>15-07-2024 13-09-46</t>
-        </is>
-      </c>
-      <c r="CI5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>4</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6">
@@ -1505,159 +1229,466 @@
       <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>28-06-2024 15-22-12</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
       <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>28-06-2024 15-24-54</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28-06-2024 15-30-28</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>0.75</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>28-06-2024 15-33-18</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>0.875</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>7</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>28-06-2024 15-35-51</t>
         </is>
       </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>28-06-2024 15-38-21</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6</v>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>28-06-2024 15-41-38</t>
-        </is>
-      </c>
       <c r="X7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>6</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
+          <t>28-06-2024 15-41-38</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
           <t>28-06-2024 15-45-57</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>3</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>28-06-2024 15-47-51</t>
         </is>
       </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>0.625</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
         <v>4</v>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>28-06-2024 15-49-48</t>
         </is>
       </c>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="inlineStr">
         <is>
           <t>28-06-2024 15-53-09</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AM7" t="n">
         <v>0.125</v>
       </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="inlineStr">
         <is>
           <t>28-06-2024 15-57-57</t>
         </is>
       </c>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>6</v>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>28-06-2024 16-00-14</t>
         </is>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>0.25</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AT7" t="n">
         <v>3</v>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>28-06-2024 16-02-12</t>
         </is>
       </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BZ1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>25-06-2024 13-39-31</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>25-+Q5:CC506-2024 17-03-28</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>25-06-2024 17-09-07</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>25-06-2024 17-58-29</t>
+        </is>
+      </c>
+      <c r="K1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-06-27</t>
+        </is>
+      </c>
+      <c r="N1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-24-10</t>
+        </is>
+      </c>
+      <c r="Q1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-29-43</t>
+        </is>
+      </c>
+      <c r="T1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-47-51</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-17-36</t>
+        </is>
+      </c>
+      <c r="Z1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-38-56</t>
+        </is>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-57-11</t>
+        </is>
+      </c>
+      <c r="AF1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-28-07</t>
+        </is>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-44-04</t>
+        </is>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-58-27</t>
+        </is>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>02-07-2024 08-11-51</t>
+        </is>
+      </c>
+      <c r="AR1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>02-07-2024 09-46-42</t>
+        </is>
+      </c>
+      <c r="AU1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>08-07-2024 10-47-17</t>
+        </is>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-06-12</t>
+        </is>
+      </c>
+      <c r="BA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-15-13</t>
+        </is>
+      </c>
+      <c r="BD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-35-46</t>
+        </is>
+      </c>
+      <c r="BG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-50-59</t>
+        </is>
+      </c>
+      <c r="BJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-54-41</t>
+        </is>
+      </c>
+      <c r="BM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>09-07-2024 09-44-58</t>
+        </is>
+      </c>
+      <c r="BP1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>09-07-2024 11-26-49</t>
+        </is>
+      </c>
+      <c r="BS1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>15-07-2024 12-29-21</t>
+        </is>
+      </c>
+      <c r="BV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>15-07-2024 13-09-46</t>
+        </is>
+      </c>
+      <c r="BY1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17E6C9E-DFEF-443D-B934-CED7172A353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51560CEC-BB61-4B43-A40A-F33DD7586066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t>level</t>
   </si>
   <si>
+    <t>number of repetitions in each exercise</t>
+  </si>
+  <si>
     <t>אלי</t>
   </si>
   <si>
@@ -85,52 +88,52 @@
     <t>קריטנברג</t>
   </si>
   <si>
-    <t>bend_elbows_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_forward_turn_ball</t>
-  </si>
-  <si>
-    <t>open_arms_and_forward_ball</t>
-  </si>
-  <si>
-    <t>open_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>open_arms_with_band</t>
-  </si>
-  <si>
-    <t>open_arms_and_up_with_band</t>
-  </si>
-  <si>
-    <t>up_with_band_and_lean</t>
-  </si>
-  <si>
-    <t>bend_elbows_stick</t>
-  </si>
-  <si>
-    <t>bend_elbows_and_up_stick</t>
-  </si>
-  <si>
-    <t>arms_up_and_down_stick</t>
-  </si>
-  <si>
-    <t>switch_with_stick</t>
-  </si>
-  <si>
-    <t>hands_behind_and_lean_notool</t>
-  </si>
-  <si>
-    <t>right_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>left_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>raising_hands_diagonally_notool</t>
+    <t>ball_bend_elbows</t>
+  </si>
+  <si>
+    <t>ball_raise_arms_above_head</t>
+  </si>
+  <si>
+    <t>ball_switch</t>
+  </si>
+  <si>
+    <t>ball_open_arms_and_forward</t>
+  </si>
+  <si>
+    <t>ball_open_arms_above_head</t>
+  </si>
+  <si>
+    <t>band_open_arms</t>
+  </si>
+  <si>
+    <t>band_open_arms_and_up</t>
+  </si>
+  <si>
+    <t>band_up_and_lean</t>
+  </si>
+  <si>
+    <t>stick_bend_elbows</t>
+  </si>
+  <si>
+    <t>stick_bend_elbows_and_up</t>
+  </si>
+  <si>
+    <t>stick_raise_arms_above_head</t>
+  </si>
+  <si>
+    <t>stick_switch</t>
+  </si>
+  <si>
+    <t>notool_hands_behind_and_lean</t>
+  </si>
+  <si>
+    <t>notool_right_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>notool_left_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>notool_raising_hands_diagonally</t>
   </si>
   <si>
     <t>43372</t>
@@ -145,19 +148,19 @@
     <t>15-07-2024 12-34-17</t>
   </si>
   <si>
-    <t>19-09-2024 11-56-26</t>
-  </si>
-  <si>
-    <t>23-09-2024 14-50-15</t>
-  </si>
-  <si>
-    <t>23-09-2024 15-45-18</t>
-  </si>
-  <si>
-    <t>23-09-2024 16-15-42</t>
-  </si>
-  <si>
-    <t>23-09-2024 16-53-49</t>
+    <t>08-10-2024 12-14-25</t>
+  </si>
+  <si>
+    <t>08-10-2024 12-15-33</t>
+  </si>
+  <si>
+    <t>09-10-2024 16-01-23</t>
+  </si>
+  <si>
+    <t>09-10-2024 17-49-46</t>
+  </si>
+  <si>
+    <t>22-10-2024 14-37-24</t>
   </si>
   <si>
     <t>25-06-2024 13-26-14</t>
@@ -176,42 +179,6 @@
   </si>
   <si>
     <t>28-06-2024 15-24-54</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-30-28</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-33-18</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-35-51</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-38-21</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-41-38</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-45-57</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-47-51</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-49-48</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-53-09</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-57-57</t>
-  </si>
-  <si>
-    <t>28-06-2024 16-00-14</t>
-  </si>
-  <si>
-    <t>28-06-2024 16-02-12</t>
   </si>
   <si>
     <t>25-06-2024 13-39-31</t>
@@ -664,19 +631,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.4140625" customWidth="1"/>
+    <col min="9" max="9" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,45 +669,51 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>314808981</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11223344</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -747,25 +721,28 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31480898</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -773,25 +750,28 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>55581599</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>-57.5</v>
@@ -799,31 +779,37 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1111</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +822,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -844,6 +830,7 @@
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -851,52 +838,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -907,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -916,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1007,7 +994,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1060,7 +1047,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1166,7 +1153,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1224,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AW9" sqref="AW9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1235,17 +1222,17 @@
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>314808981</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1253,68 +1240,86 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2">
+        <v>450</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
+        <v>29.311271000000001</v>
+      </c>
+      <c r="J2" t="s">
         <v>42</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>46.314658000000001</v>
       </c>
       <c r="N2" t="s">
         <v>43</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>49.084313999999999</v>
+      </c>
+      <c r="R2" t="s">
         <v>44</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>79.848566000000005</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <v>86.667198999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>55581599</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1326,7 +1331,7 @@
         <v>560</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1338,7 +1343,7 @@
         <v>657</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1350,17 +1355,17 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1111</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -1368,8 +1373,11 @@
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>239</v>
+      </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1377,8 +1385,11 @@
       <c r="H7">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>564</v>
+      </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1386,113 +1397,8 @@
       <c r="L7">
         <v>6</v>
       </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7">
-        <v>0.75</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7">
-        <v>0.875</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>6</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7">
-        <v>0.5</v>
-      </c>
-      <c r="AB7">
-        <v>6</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>3</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG7">
-        <v>0.625</v>
-      </c>
-      <c r="AH7">
-        <v>4</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM7">
-        <v>0.125</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>6</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS7">
-        <v>0.25</v>
-      </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>2</v>
+      <c r="M7">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1418,7 @@
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1521,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -1530,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -1539,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -1548,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N1">
         <v>0</v>
@@ -1557,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="Q1">
         <v>0</v>
@@ -1566,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="T1">
         <v>0</v>
@@ -1575,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="W1">
         <v>0</v>
@@ -1584,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Z1">
         <v>1</v>
@@ -1593,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="AB1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AC1">
         <v>0.2</v>
@@ -1602,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="AE1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AF1">
         <v>1</v>
@@ -1611,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="AH1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AI1">
         <v>0.8</v>
@@ -1620,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="AK1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AL1">
         <v>0.6</v>
@@ -1629,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="AN1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AO1">
         <v>0.6</v>
@@ -1638,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="AQ1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AR1">
         <v>1</v>
@@ -1647,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="AT1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AU1">
         <v>1</v>
@@ -1656,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="AW1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AX1">
         <v>0.8</v>
@@ -1665,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="AZ1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="BA1">
         <v>0</v>
@@ -1674,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="BC1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BD1">
         <v>0</v>
@@ -1683,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="BF1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="BG1">
         <v>0</v>
@@ -1692,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="BI1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="BJ1">
         <v>0</v>
@@ -1701,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="BL1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="BM1">
         <v>0</v>
@@ -1710,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="BO1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="BP1">
         <v>1</v>
@@ -1719,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="BR1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="BS1">
         <v>0.8</v>
@@ -1728,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="BU1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="BV1">
         <v>0</v>
@@ -1737,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="BX1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="BY1">
         <v>0.8</v>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,14 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +58,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,20 +81,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -94,12 +92,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -498,19 +495,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18.140625" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="14.42578125" customWidth="1" min="7" max="7"/>
-    <col width="33.42578125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="36" bestFit="1" customWidth="1" min="9" max="9"/>
     <col width="9.7109375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="40.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -559,14 +556,19 @@
           <t>number of repetitions in each exercise</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rate</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>shoulders distance</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>email of therapist</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>distance between sholders</t>
         </is>
       </c>
     </row>
@@ -613,6 +615,11 @@
           <t>moderate</t>
         </is>
       </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com,yaelszn@post.bgu.ac.il</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -647,6 +654,11 @@
           <t>moderate</t>
         </is>
       </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -689,6 +701,11 @@
           <t>moderate</t>
         </is>
       </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -731,6 +748,11 @@
           <t>moderate</t>
         </is>
       </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -773,8 +795,20 @@
           <t>moderate</t>
         </is>
       </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -787,8 +821,8 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -891,19 +925,19 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -607,12 +607,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>slow</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39493DA8-ED6C-48F1-91C4-A186F03B96AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C01877C-8238-480E-BFB2-B032EA61E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -43,12 +43,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>points in current level</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>number of repetitions in each exercise</t>
   </si>
   <si>
@@ -58,7 +52,7 @@
     <t>email of therapist</t>
   </si>
   <si>
-    <t>distance between sholders</t>
+    <t>dist between sholders</t>
   </si>
   <si>
     <t>אלי</t>
@@ -73,6 +67,9 @@
     <t>yaelszn@gmail.com</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>slow</t>
   </si>
   <si>
@@ -104,6 +101,18 @@
   </si>
   <si>
     <t>קריטנברג</t>
+  </si>
+  <si>
+    <t>3154896</t>
+  </si>
+  <si>
+    <t>frfgwr</t>
+  </si>
+  <si>
+    <t>wdrfvgwr</t>
+  </si>
+  <si>
+    <t>sdfgs@gmail.com</t>
   </si>
   <si>
     <t>ball_bend_elbows</t>
@@ -694,22 +703,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,200 +749,197 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>314808981</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11223344</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31480898</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>55581599</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>-57.5</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1111</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>286.84147796630862</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,52 +955,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1002,7 +1008,7 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1017,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1105,7 +1111,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1158,7 +1164,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1264,7 +1270,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1312,6 +1318,59 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1323,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1344,7 +1403,7 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1356,7 +1415,7 @@
         <v>450</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1368,7 +1427,7 @@
         <v>29.311271000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1380,7 +1439,7 @@
         <v>46.314658000000001</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1392,7 +1451,7 @@
         <v>49.084313999999999</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1404,7 +1463,7 @@
         <v>79.848566000000005</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1418,12 +1477,12 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1431,7 +1490,7 @@
         <v>55581599</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1443,7 +1502,7 @@
         <v>560</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1455,7 +1514,7 @@
         <v>657</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1469,7 +1528,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1477,7 +1536,7 @@
         <v>1111</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -1489,7 +1548,7 @@
         <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1501,7 +1560,7 @@
         <v>564</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1511,6 +1570,11 @@
       </c>
       <c r="M7">
         <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1594,7 @@
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1539,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -1548,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -1557,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -1566,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N1">
         <v>0</v>
@@ -1575,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q1">
         <v>0</v>
@@ -1584,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T1">
         <v>0</v>
@@ -1593,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W1">
         <v>0</v>
@@ -1602,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Z1">
         <v>1</v>
@@ -1611,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="AB1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AC1">
         <v>0.2</v>
@@ -1620,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="AE1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AF1">
         <v>1</v>
@@ -1629,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="AH1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI1">
         <v>0.8</v>
@@ -1638,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="AK1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AL1">
         <v>0.6</v>
@@ -1647,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="AN1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AO1">
         <v>0.6</v>
@@ -1656,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="AQ1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR1">
         <v>1</v>
@@ -1665,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="AT1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AU1">
         <v>1</v>
@@ -1674,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="AW1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AX1">
         <v>0.8</v>
@@ -1683,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="AZ1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="BA1">
         <v>0</v>
@@ -1692,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="BC1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="BD1">
         <v>0</v>
@@ -1701,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="BF1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="BG1">
         <v>0</v>
@@ -1710,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="BI1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="BJ1">
         <v>0</v>
@@ -1719,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="BL1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BM1">
         <v>0</v>
@@ -1728,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="BO1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BP1">
         <v>1</v>
@@ -1737,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="BR1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="BS1">
         <v>0.8</v>
@@ -1746,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="BU1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="BV1">
         <v>0</v>
@@ -1755,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="BX1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BY1">
         <v>0.8</v>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C01877C-8238-480E-BFB2-B032EA61E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F10B13-524E-4482-88BC-B67944185142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -70,9 +70,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
     <t>yaelszn@gmail.com,yaelszn@post.bgu.ac.il</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
     <t>band_up_and_lean</t>
   </si>
   <si>
+    <t>band_straighten_left_arm_elbows_bend_to_sides</t>
+  </si>
+  <si>
+    <t>band_straighten_right_arm_elbows_bend_to_sides</t>
+  </si>
+  <si>
     <t>stick_bend_elbows</t>
   </si>
   <si>
@@ -151,6 +154,21 @@
     <t>stick_switch</t>
   </si>
   <si>
+    <t>stick_up_and_lean</t>
+  </si>
+  <si>
+    <t>weights_right_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>weights_left_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>weights_open_arms_and_forward</t>
+  </si>
+  <si>
+    <t>weights_abduction</t>
+  </si>
+  <si>
     <t>notool_hands_behind_and_lean</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
   </si>
   <si>
     <t>notool_raising_hands_diagonally</t>
+  </si>
+  <si>
+    <t>notool_right_bend_left_up_from_side</t>
+  </si>
+  <si>
+    <t>notool_left_bend_right_up_from_side</t>
   </si>
   <si>
     <t>43372</t>
@@ -315,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +387,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -705,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -773,10 +806,13 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
+      <c r="J2">
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -784,7 +820,7 @@
         <v>11223344</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -799,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -810,25 +846,25 @@
         <v>31480898</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -839,25 +875,25 @@
         <v>55581599</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -868,10 +904,10 @@
         <v>1111</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -880,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -894,13 +930,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -909,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>286.84147796630862</v>
@@ -930,16 +966,16 @@
     <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,62 +984,93 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>314808981</v>
       </c>
@@ -1032,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -1055,8 +1122,35 @@
       <c r="Q2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11223344</v>
       </c>
@@ -1108,10 +1202,37 @@
       <c r="Q3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1161,10 +1282,37 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1214,8 +1362,35 @@
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55581599</v>
       </c>
@@ -1244,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -1253,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1267,10 +1442,37 @@
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1320,10 +1522,37 @@
       <c r="Q7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -1371,6 +1600,33 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1659,7 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1415,7 +1671,7 @@
         <v>450</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1427,7 +1683,7 @@
         <v>29.311271000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1439,7 +1695,7 @@
         <v>46.314658000000001</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1451,7 +1707,7 @@
         <v>49.084313999999999</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1463,7 +1719,7 @@
         <v>79.848566000000005</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1477,12 +1733,12 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1490,7 +1746,7 @@
         <v>55581599</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1502,7 +1758,7 @@
         <v>560</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1514,7 +1770,7 @@
         <v>657</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1528,7 +1784,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1536,7 +1792,7 @@
         <v>1111</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -1548,7 +1804,7 @@
         <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1560,7 +1816,7 @@
         <v>564</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1574,7 +1830,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1603,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -1612,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -1621,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -1630,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N1">
         <v>0</v>
@@ -1639,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q1">
         <v>0</v>
@@ -1648,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="T1">
         <v>0</v>
@@ -1657,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="W1">
         <v>0</v>
@@ -1666,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Z1">
         <v>1</v>
@@ -1675,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AC1">
         <v>0.2</v>
@@ -1684,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="AE1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AF1">
         <v>1</v>
@@ -1693,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="AH1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AI1">
         <v>0.8</v>
@@ -1702,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="AK1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AL1">
         <v>0.6</v>
@@ -1711,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="AN1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AO1">
         <v>0.6</v>
@@ -1720,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="AQ1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AR1">
         <v>1</v>
@@ -1729,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="AT1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AU1">
         <v>1</v>
@@ -1738,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="AW1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AX1">
         <v>0.8</v>
@@ -1747,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="AZ1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="BA1">
         <v>0</v>
@@ -1756,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="BC1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="BD1">
         <v>0</v>
@@ -1765,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="BF1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="BG1">
         <v>0</v>
@@ -1774,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="BI1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="BJ1">
         <v>0</v>
@@ -1783,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="BL1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="BM1">
         <v>0</v>
@@ -1792,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="BO1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="BP1">
         <v>1</v>
@@ -1801,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="BR1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="BS1">
         <v>0.8</v>
@@ -1810,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="BU1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="BV1">
         <v>0</v>
@@ -1819,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="BX1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="BY1">
         <v>0.8</v>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F10B13-524E-4482-88BC-B67944185142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E642B4E1-7628-46EC-9454-F24867357190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,34 +1075,34 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -1632,7 +1632,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -1,354 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E642B4E1-7628-46EC-9454-F24867357190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="patients_details" sheetId="1" r:id="rId1"/>
-    <sheet name="patients_exercises" sheetId="2" r:id="rId2"/>
-    <sheet name="patients_history_of_trainings" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="patients_exercises" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="patients_history_of_trainings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>number of exercises</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>number of repetitions in each exercise</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>email of therapist</t>
-  </si>
-  <si>
-    <t>dist between sholders</t>
-  </si>
-  <si>
-    <t>אלי</t>
-  </si>
-  <si>
-    <t>כהן</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>yaelszn@gmail.com</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>yaelszn@gmail.com,yaelszn@post.bgu.ac.il</t>
-  </si>
-  <si>
-    <t>יעקב</t>
-  </si>
-  <si>
-    <t>moderate</t>
-  </si>
-  <si>
-    <t>יעל</t>
-  </si>
-  <si>
-    <t>שניידמן</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>yaelszn@post.bgu.ac.il</t>
-  </si>
-  <si>
-    <t>רותי</t>
-  </si>
-  <si>
-    <t>רונן</t>
-  </si>
-  <si>
-    <t>קריטנברג</t>
-  </si>
-  <si>
-    <t>3154896</t>
-  </si>
-  <si>
-    <t>frfgwr</t>
-  </si>
-  <si>
-    <t>wdrfvgwr</t>
-  </si>
-  <si>
-    <t>sdfgs@gmail.com</t>
-  </si>
-  <si>
-    <t>ball_bend_elbows</t>
-  </si>
-  <si>
-    <t>ball_raise_arms_above_head</t>
-  </si>
-  <si>
-    <t>ball_switch</t>
-  </si>
-  <si>
-    <t>ball_open_arms_and_forward</t>
-  </si>
-  <si>
-    <t>ball_open_arms_above_head</t>
-  </si>
-  <si>
-    <t>band_open_arms</t>
-  </si>
-  <si>
-    <t>band_open_arms_and_up</t>
-  </si>
-  <si>
-    <t>band_up_and_lean</t>
-  </si>
-  <si>
-    <t>band_straighten_left_arm_elbows_bend_to_sides</t>
-  </si>
-  <si>
-    <t>band_straighten_right_arm_elbows_bend_to_sides</t>
-  </si>
-  <si>
-    <t>stick_bend_elbows</t>
-  </si>
-  <si>
-    <t>stick_bend_elbows_and_up</t>
-  </si>
-  <si>
-    <t>stick_raise_arms_above_head</t>
-  </si>
-  <si>
-    <t>stick_switch</t>
-  </si>
-  <si>
-    <t>stick_up_and_lean</t>
-  </si>
-  <si>
-    <t>weights_right_hand_up_and_bend</t>
-  </si>
-  <si>
-    <t>weights_left_hand_up_and_bend</t>
-  </si>
-  <si>
-    <t>weights_open_arms_and_forward</t>
-  </si>
-  <si>
-    <t>weights_abduction</t>
-  </si>
-  <si>
-    <t>notool_hands_behind_and_lean</t>
-  </si>
-  <si>
-    <t>notool_right_hand_up_and_bend</t>
-  </si>
-  <si>
-    <t>notool_left_hand_up_and_bend</t>
-  </si>
-  <si>
-    <t>notool_raising_hands_diagonally</t>
-  </si>
-  <si>
-    <t>notool_right_bend_left_up_from_side</t>
-  </si>
-  <si>
-    <t>notool_left_bend_right_up_from_side</t>
-  </si>
-  <si>
-    <t>43372</t>
-  </si>
-  <si>
-    <t>4327</t>
-  </si>
-  <si>
-    <t>43817</t>
-  </si>
-  <si>
-    <t>15-07-2024 12-34-17</t>
-  </si>
-  <si>
-    <t>08-10-2024 12-14-25</t>
-  </si>
-  <si>
-    <t>08-10-2024 12-15-33</t>
-  </si>
-  <si>
-    <t>09-10-2024 16-01-23</t>
-  </si>
-  <si>
-    <t>09-10-2024 17-49-46</t>
-  </si>
-  <si>
-    <t>22-10-2024 14-37-24</t>
-  </si>
-  <si>
-    <t>25-06-2024 13-26-14</t>
-  </si>
-  <si>
-    <t>25-06-2024 13-32-37</t>
-  </si>
-  <si>
-    <t>25-06-2024 13-36-51</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-19-02</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-22-12</t>
-  </si>
-  <si>
-    <t>28-06-2024 15-24-54</t>
-  </si>
-  <si>
-    <t>25-06-2024 13-39-31</t>
-  </si>
-  <si>
-    <t>25-+Q5:CC506-2024 17-03-28</t>
-  </si>
-  <si>
-    <t>25-06-2024 17-09-07</t>
-  </si>
-  <si>
-    <t>25-06-2024 17-58-29</t>
-  </si>
-  <si>
-    <t>25-06-2024 18-06-27</t>
-  </si>
-  <si>
-    <t>25-06-2024 18-24-10</t>
-  </si>
-  <si>
-    <t>25-06-2024 18-29-43</t>
-  </si>
-  <si>
-    <t>25-06-2024 18-47-51</t>
-  </si>
-  <si>
-    <t>26-06-2024 11-17-36</t>
-  </si>
-  <si>
-    <t>26-06-2024 11-38-56</t>
-  </si>
-  <si>
-    <t>26-06-2024 11-57-11</t>
-  </si>
-  <si>
-    <t>26-06-2024 16-28-07</t>
-  </si>
-  <si>
-    <t>26-06-2024 16-44-04</t>
-  </si>
-  <si>
-    <t>26-06-2024 16-58-27</t>
-  </si>
-  <si>
-    <t>02-07-2024 08-11-51</t>
-  </si>
-  <si>
-    <t>02-07-2024 09-46-42</t>
-  </si>
-  <si>
-    <t>08-07-2024 10-47-17</t>
-  </si>
-  <si>
-    <t>08-07-2024 11-06-12</t>
-  </si>
-  <si>
-    <t>08-07-2024 11-15-13</t>
-  </si>
-  <si>
-    <t>08-07-2024 11-35-46</t>
-  </si>
-  <si>
-    <t>08-07-2024 11-50-59</t>
-  </si>
-  <si>
-    <t>08-07-2024 11-54-41</t>
-  </si>
-  <si>
-    <t>09-07-2024 09-44-58</t>
-  </si>
-  <si>
-    <t>09-07-2024 11-26-49</t>
-  </si>
-  <si>
-    <t>15-07-2024 12-29-21</t>
-  </si>
-  <si>
-    <t>15-07-2024 13-09-46</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,30 +93,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -735,235 +499,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col width="18.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="36" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="40.85546875" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="21" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>first name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>last name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>number of exercises</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>number of repetitions in each exercise</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>email of therapist</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>dist between shoulders</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>314808981</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>אלי</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com,yaelszn@post.bgu.ac.il</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11223344</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>יעקב</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31480898</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>יעל</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>שניידמן</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>yaelszn@post.bgu.ac.il</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55581599</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>רותי</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>שניידמן</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>314808981</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>yaelszn@post.bgu.ac.il</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>רונן</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>קריטנברג</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>yaelszn@post.bgu.ac.il</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3154896</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>frfgwr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>wdrfvgwr</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sdfgs@gmail.com</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11223344</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>31480898</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>55581599</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>286.84147796630862</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>286.8414779663086</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -971,107 +831,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="25.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="26.140625" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="28" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="35.85546875" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ball_bend_elbows</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ball_raise_arms_above_head</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ball_switch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ball_open_arms_and_forward</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ball_open_arms_above_head</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>band_open_arms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>band_open_arms_and_up</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>band_up_and_lean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>band_straighten_left_arm_elbows_bend_to_sides</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>band_straighten_right_arm_elbows_bend_to_sides</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stick_bend_elbows</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stick_bend_elbows_and_up</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>stick_raise_arms_above_head</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>stick_switch</t>
+        </is>
+      </c>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>stick_up_and_lean</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>weights_right_hand_up_and_bend</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>weights_left_hand_up_and_bend</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>weights_open_arms_and_forward</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>weights_abduction</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>notool_hands_behind_and_lean</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>notool_right_hand_up_and_bend</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>notool_left_hand_up_and_bend</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>notool_raising_hands_diagonally</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>notool_right_bend_left_up_from_side</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>notool_left_bend_right_up_from_side</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
@@ -1150,8 +1066,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>11223344</v>
       </c>
       <c r="B3" t="b">
@@ -1230,9 +1146,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>43372</t>
+        </is>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1310,9 +1228,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4327</t>
+        </is>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1390,8 +1310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>55581599</v>
       </c>
       <c r="B6" t="b">
@@ -1470,9 +1390,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>43817</t>
+        </is>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1550,9 +1472,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3154896</t>
+        </is>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -1632,205 +1556,243 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>314808981</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15-07-2024 12-34-17</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>450</v>
       </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>08-10-2024 12-14-25</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>29.311271000000001</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>46.314658000000001</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
+      <c r="I2" t="n">
+        <v>29.311271</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>08-10-2024 12-15-33</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.314658</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>09-10-2024 16-01-23</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2">
-        <v>49.084313999999999</v>
-      </c>
-      <c r="R2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
+      <c r="Q2" t="n">
+        <v>49.084314</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>09-10-2024 17-49-46</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
       </c>
-      <c r="U2">
-        <v>79.848566000000005</v>
-      </c>
-      <c r="V2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
+      <c r="U2" t="n">
+        <v>79.84856600000001</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>22-10-2024 14-37-24</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>3</v>
       </c>
-      <c r="Y2">
-        <v>86.667198999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="Y2" t="n">
+        <v>86.667199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>43372</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4327</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>55581599</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25-06-2024 13-26-14</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>560</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>25-06-2024 13-32-37</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>657</v>
       </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>25-06-2024 13-36-51</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>43817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1111</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-19-02</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.75</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>239</v>
       </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-22-12</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>564</v>
       </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>28-06-2024 15-24-54</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3154896</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1839,248 +1801,304 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BZ1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>25-06-2024 13-39-31</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>25-+Q5:CC506-2024 17-03-28</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>25-06-2024 17-09-07</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" t="n">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>25-06-2024 17-58-29</t>
+        </is>
+      </c>
+      <c r="K1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-06-27</t>
+        </is>
+      </c>
+      <c r="N1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1" t="n">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-24-10</t>
+        </is>
+      </c>
+      <c r="Q1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" t="n">
         <v>2</v>
       </c>
-      <c r="S1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-29-43</t>
+        </is>
+      </c>
+      <c r="T1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1" t="n">
         <v>4</v>
       </c>
-      <c r="V1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>25-06-2024 18-47-51</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X1" t="n">
         <v>2</v>
       </c>
-      <c r="Y1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1">
-        <v>1</v>
-      </c>
-      <c r="AA1">
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-17-36</t>
+        </is>
+      </c>
+      <c r="Z1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="n">
         <v>4</v>
       </c>
-      <c r="AB1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1">
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-38-56</t>
+        </is>
+      </c>
+      <c r="AC1" t="n">
         <v>0.2</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" t="n">
         <v>2</v>
       </c>
-      <c r="AE1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF1">
-        <v>1</v>
-      </c>
-      <c r="AG1">
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>26-06-2024 11-57-11</t>
+        </is>
+      </c>
+      <c r="AF1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG1" t="n">
         <v>5</v>
       </c>
-      <c r="AH1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1">
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-28-07</t>
+        </is>
+      </c>
+      <c r="AI1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" t="n">
         <v>4</v>
       </c>
-      <c r="AK1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL1">
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-44-04</t>
+        </is>
+      </c>
+      <c r="AL1" t="n">
         <v>0.6</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" t="n">
         <v>4</v>
       </c>
-      <c r="AN1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO1">
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>26-06-2024 16-58-27</t>
+        </is>
+      </c>
+      <c r="AO1" t="n">
         <v>0.6</v>
       </c>
-      <c r="AP1">
+      <c r="AP1" t="n">
         <v>4</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR1">
-        <v>1</v>
-      </c>
-      <c r="AS1">
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>02-07-2024 08-11-51</t>
+        </is>
+      </c>
+      <c r="AR1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS1" t="n">
         <v>5</v>
       </c>
-      <c r="AT1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU1">
-        <v>1</v>
-      </c>
-      <c r="AV1">
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>02-07-2024 09-46-42</t>
+        </is>
+      </c>
+      <c r="AU1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV1" t="n">
         <v>5</v>
       </c>
-      <c r="AW1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX1">
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>08-07-2024 10-47-17</t>
+        </is>
+      </c>
+      <c r="AX1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AY1">
+      <c r="AY1" t="n">
         <v>5</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA1">
-        <v>0</v>
-      </c>
-      <c r="BB1">
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-06-12</t>
+        </is>
+      </c>
+      <c r="BA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB1" t="n">
         <v>3</v>
       </c>
-      <c r="BC1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD1">
-        <v>0</v>
-      </c>
-      <c r="BE1">
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-15-13</t>
+        </is>
+      </c>
+      <c r="BD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE1" t="n">
         <v>5</v>
       </c>
-      <c r="BF1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG1">
-        <v>0</v>
-      </c>
-      <c r="BH1">
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-35-46</t>
+        </is>
+      </c>
+      <c r="BG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH1" t="n">
         <v>5</v>
       </c>
-      <c r="BI1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ1">
-        <v>0</v>
-      </c>
-      <c r="BK1">
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-50-59</t>
+        </is>
+      </c>
+      <c r="BJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK1" t="n">
         <v>2</v>
       </c>
-      <c r="BL1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BM1">
-        <v>0</v>
-      </c>
-      <c r="BN1">
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>08-07-2024 11-54-41</t>
+        </is>
+      </c>
+      <c r="BM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN1" t="n">
         <v>2</v>
       </c>
-      <c r="BO1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP1">
-        <v>1</v>
-      </c>
-      <c r="BQ1">
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>09-07-2024 09-44-58</t>
+        </is>
+      </c>
+      <c r="BP1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ1" t="n">
         <v>2</v>
       </c>
-      <c r="BR1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS1">
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>09-07-2024 11-26-49</t>
+        </is>
+      </c>
+      <c r="BS1" t="n">
         <v>0.8</v>
       </c>
-      <c r="BT1">
+      <c r="BT1" t="n">
         <v>5</v>
       </c>
-      <c r="BU1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV1">
-        <v>0</v>
-      </c>
-      <c r="BW1">
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>15-07-2024 12-29-21</t>
+        </is>
+      </c>
+      <c r="BV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW1" t="n">
         <v>4</v>
       </c>
-      <c r="BX1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY1">
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>15-07-2024 13-09-46</t>
+        </is>
+      </c>
+      <c r="BY1" t="n">
         <v>0.8</v>
       </c>
-      <c r="BZ1">
+      <c r="BZ1" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -506,7 +506,7 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -838,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1006,64 +1006,64 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -838,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -991,79 +991,79 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
       <c r="T2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1566,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1671,6 +1671,146 @@
       </c>
       <c r="Y2" t="n">
         <v>86.667199</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>30-12-2024 15-47-42</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>56.349868</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>30-12-2024 15-54-36</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>61.618695</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>30-12-2024 15-57-21</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>62.071367</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>30-12-2024 16-35-18</t>
+        </is>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>65.93750199999999</v>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>30-12-2024 16-55-18</t>
+        </is>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>66.011421</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>30-12-2024 16-58-45</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>66.287249</v>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>30-12-2024 17-02-24</t>
+        </is>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>66.035151</v>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>30-12-2024 17-08-38</t>
+        </is>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>65.771236</v>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>30-12-2024 17-17-53</t>
+        </is>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>67.079531</v>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>30-12-2024 17-46-08</t>
+        </is>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>198.638098</v>
       </c>
     </row>
     <row r="3">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="9240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -838,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -991,7 +991,7 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1566,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM8"/>
+  <dimension ref="A1:CS8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1811,6 +1811,118 @@
       </c>
       <c r="BM2" t="n">
         <v>198.638098</v>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>31-12-2024 09-25-05</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>202.272421</v>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>04-01-2025 16-56-39</t>
+        </is>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>100.500794</v>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>04-01-2025 17-00-26</t>
+        </is>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>101.174822</v>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>04-01-2025 17-04-12</t>
+        </is>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>101.14578</v>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>04-01-2025 17-11-23</t>
+        </is>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>41.346498</v>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>04-01-2025 18-07-34</t>
+        </is>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>43.374478</v>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>04-01-2025 18-15-40</t>
+        </is>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>41.843589</v>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>04-01-2025 18-19-03</t>
+        </is>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>49.588671</v>
       </c>
     </row>
     <row r="3">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="9240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -600,12 +600,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>slow</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -838,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -991,7 +991,7 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -1566,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS8"/>
+  <dimension ref="A1:EO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1923,6 +1923,174 @@
       </c>
       <c r="CS2" t="n">
         <v>49.588671</v>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>07-01-2025 11-03-55</t>
+        </is>
+      </c>
+      <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>41.853011</v>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>07-01-2025 11-08-45</t>
+        </is>
+      </c>
+      <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>39.636178</v>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>07-01-2025 11-15-11</t>
+        </is>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>39.064029</v>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>07-01-2025 11-18-56</t>
+        </is>
+      </c>
+      <c r="DG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>48.480658</v>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>07-01-2025 11-22-10</t>
+        </is>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>45.907848</v>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>07-01-2025 11-53-00</t>
+        </is>
+      </c>
+      <c r="DO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>40.134684</v>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>07-01-2025 13-52-24</t>
+        </is>
+      </c>
+      <c r="DS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>48.359222</v>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>07-01-2025 16-20-29</t>
+        </is>
+      </c>
+      <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>28.825789</v>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>08-01-2025 13-59-52</t>
+        </is>
+      </c>
+      <c r="EA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>49.690214</v>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>08-01-2025 14-05-10</t>
+        </is>
+      </c>
+      <c r="EE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>52.504979</v>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>08-01-2025 14-53-50</t>
+        </is>
+      </c>
+      <c r="EI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>28.00543</v>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>08-01-2025 16-31-45</t>
+        </is>
+      </c>
+      <c r="EM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>58.035631</v>
       </c>
     </row>
     <row r="3">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -605,7 +605,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>slow</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -839,7 +839,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -991,19 +991,19 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -1566,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO8"/>
+  <dimension ref="A1:GG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -2091,6 +2091,160 @@
       </c>
       <c r="EO2" t="n">
         <v>58.035631</v>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>13-01-2025 10-36-08</t>
+        </is>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>52.133899</v>
+      </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>13-01-2025 10-48-28</t>
+        </is>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>73.82828600000001</v>
+      </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>13-01-2025 18-27-46</t>
+        </is>
+      </c>
+      <c r="EY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>53.764375</v>
+      </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>13-01-2025 18-30-07</t>
+        </is>
+      </c>
+      <c r="FC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>59.378854</v>
+      </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>13-01-2025 18-42-38</t>
+        </is>
+      </c>
+      <c r="FG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>58.170945</v>
+      </c>
+      <c r="FJ2" t="inlineStr">
+        <is>
+          <t>13-01-2025 18-49-55</t>
+        </is>
+      </c>
+      <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>58.202698</v>
+      </c>
+      <c r="FN2" t="inlineStr">
+        <is>
+          <t>13-01-2025 19-14-42</t>
+        </is>
+      </c>
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>56.381717</v>
+      </c>
+      <c r="FR2" t="inlineStr">
+        <is>
+          <t>13-01-2025 20-23-51</t>
+        </is>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>5</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>57.7776</v>
+      </c>
+      <c r="FV2" t="inlineStr">
+        <is>
+          <t>14-01-2025 10-46-23</t>
+        </is>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>149.810546</v>
+      </c>
+      <c r="FZ2" t="inlineStr">
+        <is>
+          <t>14-01-2025 11-01-17</t>
+        </is>
+      </c>
+      <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>111.330954</v>
+      </c>
+      <c r="GD2" t="inlineStr">
+        <is>
+          <t>14-01-2025 22-17-51</t>
+        </is>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>327.496393</v>
       </c>
     </row>
     <row r="3">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1566,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG8"/>
+  <dimension ref="A1:GW8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -2245,6 +2245,62 @@
       </c>
       <c r="GG2" t="n">
         <v>327.496393</v>
+      </c>
+      <c r="GH2" t="inlineStr">
+        <is>
+          <t>16-01-2025 18-45-15</t>
+        </is>
+      </c>
+      <c r="GI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>266.898085</v>
+      </c>
+      <c r="GL2" t="inlineStr">
+        <is>
+          <t>16-01-2025 19-16-05</t>
+        </is>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>88.538149</v>
+      </c>
+      <c r="GP2" t="inlineStr">
+        <is>
+          <t>16-01-2025 19-23-50</t>
+        </is>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>388.861171</v>
+      </c>
+      <c r="GT2" t="inlineStr">
+        <is>
+          <t>16-01-2025 21-41-14</t>
+        </is>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>374.659735</v>
       </c>
     </row>
     <row r="3">

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="patients_exercises" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="patients_history_of_trainings" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -504,10 +503,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -591,17 +590,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>yaelszn@gmail.com</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="G2" t="n">
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -610,7 +607,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>yaelszn@gmail.com,yaelszn@post.bgu.ac.il</t>
+          <t>yaelszn@gmail.com</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -619,25 +616,30 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11223344</v>
+        <v>31480898</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>יעקב</t>
+          <t>יעל</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>כהן</t>
+          <t>שניידמן</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>yaelszn@post.bgu.ac.il</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -655,11 +657,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31480898</v>
+        <v>55581599</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>יעל</t>
+          <t>רותי</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -673,7 +675,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -696,25 +698,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55581599</v>
+        <v>1111</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>רותי</t>
+          <t>רונן</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>שניידמן</t>
+          <t>קריטנברג</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -736,17 +738,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1111</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3154896</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>רונן</t>
+          <t>frfgwr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>קריטנברג</t>
+          <t>wdrfvgwr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -755,54 +759,52 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>yaelszn@post.bgu.ac.il</t>
+          <t>sdfgs@gmail.com</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>moderate</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>yaelszn@gmail.com</t>
-        </is>
+      <c r="J6" t="n">
+        <v>286.8414779663086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3154896</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frfgwr</t>
+          <t>יעל</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wdrfvgwr</t>
+          <t>שניידמן</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>sdfgs@gmail.com</t>
+          <t>yaelszn@gmail.com</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -814,7 +816,117 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>286.8414779663086</v>
+        <v>275.5895568847656</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>271.2217620849609</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>274.0484497070312</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>268.0842300415039</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +935,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I3" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I4" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -836,10 +947,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -991,19 +1102,19 @@
         <v>314808981</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1021,31 +1132,31 @@
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -1068,22 +1179,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11223344</v>
+        <v>8888</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1149,23 +1260,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>43372</t>
+          <t>4327</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1229,46 +1340,44 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4327</t>
-        </is>
+      <c r="A5" t="n">
+        <v>55581599</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -1292,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1311,44 +1420,46 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>55581599</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>43817</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -1372,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1393,7 +1504,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>43817</t>
+          <t>3154896</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -1475,14 +1586,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3154896</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B8" t="b">
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1552,6 +1663,252 @@
       </c>
       <c r="Z8" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1566,10 +1923,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC8"/>
+  <dimension ref="A1:JI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2414,6 +2771,118 @@
       <c r="IC2" t="n">
         <v>54.155904</v>
       </c>
+      <c r="ID2" t="inlineStr">
+        <is>
+          <t>18-01-2025 14-38-29</t>
+        </is>
+      </c>
+      <c r="IE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>65.507228</v>
+      </c>
+      <c r="IH2" t="inlineStr">
+        <is>
+          <t>18-01-2025 15-10-07</t>
+        </is>
+      </c>
+      <c r="II2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>47.162636</v>
+      </c>
+      <c r="IL2" t="inlineStr">
+        <is>
+          <t>18-01-2025 15-13-33</t>
+        </is>
+      </c>
+      <c r="IM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>63.467917</v>
+      </c>
+      <c r="IP2" t="inlineStr">
+        <is>
+          <t>18-01-2025 15-37-09</t>
+        </is>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>39.430029</v>
+      </c>
+      <c r="IT2" t="inlineStr">
+        <is>
+          <t>18-01-2025 15-51-28</t>
+        </is>
+      </c>
+      <c r="IU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>46.576659</v>
+      </c>
+      <c r="IX2" t="inlineStr">
+        <is>
+          <t>18-01-2025 15-55-51</t>
+        </is>
+      </c>
+      <c r="IY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>44.501342</v>
+      </c>
+      <c r="JB2" t="inlineStr">
+        <is>
+          <t>18-01-2025 17-33-27</t>
+        </is>
+      </c>
+      <c r="JC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>32.531075</v>
+      </c>
+      <c r="JF2" t="inlineStr">
+        <is>
+          <t>18-01-2025 17-35-43</t>
+        </is>
+      </c>
+      <c r="JG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>43.023654</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2537,311 +3006,46 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BZ1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>25-06-2024 13-39-31</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>25-+Q5:CC506-2024 17-03-28</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>25-06-2024 17-09-07</t>
-        </is>
-      </c>
-      <c r="H1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>25-06-2024 17-58-29</t>
-        </is>
-      </c>
-      <c r="K1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-06-27</t>
-        </is>
-      </c>
-      <c r="N1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-24-10</t>
-        </is>
-      </c>
-      <c r="Q1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-29-43</t>
-        </is>
-      </c>
-      <c r="T1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U1" t="n">
-        <v>4</v>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>25-06-2024 18-47-51</t>
-        </is>
-      </c>
-      <c r="W1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>26-06-2024 11-17-36</t>
-        </is>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>26-06-2024 11-38-56</t>
-        </is>
-      </c>
-      <c r="AC1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>26-06-2024 11-57-11</t>
-        </is>
-      </c>
-      <c r="AF1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>26-06-2024 16-28-07</t>
-        </is>
-      </c>
-      <c r="AI1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>26-06-2024 16-44-04</t>
-        </is>
-      </c>
-      <c r="AL1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>26-06-2024 16-58-27</t>
-        </is>
-      </c>
-      <c r="AO1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>02-07-2024 08-11-51</t>
-        </is>
-      </c>
-      <c r="AR1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>02-07-2024 09-46-42</t>
-        </is>
-      </c>
-      <c r="AU1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>08-07-2024 10-47-17</t>
-        </is>
-      </c>
-      <c r="AX1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AY1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-06-12</t>
-        </is>
-      </c>
-      <c r="BA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB1" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-15-13</t>
-        </is>
-      </c>
-      <c r="BD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-35-46</t>
-        </is>
-      </c>
-      <c r="BG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-50-59</t>
-        </is>
-      </c>
-      <c r="BJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>08-07-2024 11-54-41</t>
-        </is>
-      </c>
-      <c r="BM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>09-07-2024 09-44-58</t>
-        </is>
-      </c>
-      <c r="BP1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>09-07-2024 11-26-49</t>
-        </is>
-      </c>
-      <c r="BS1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BT1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>15-07-2024 12-29-21</t>
-        </is>
-      </c>
-      <c r="BV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW1" t="n">
-        <v>4</v>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>15-07-2024 13-09-46</t>
-        </is>
-      </c>
-      <c r="BY1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BZ1" t="n">
-        <v>4</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18-01-2025 15-57-12</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38.402667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="9240" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -503,10 +503,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -897,8 +897,16 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ירון</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>כהן</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Male</t>
@@ -913,7 +921,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -927,6 +935,196 @@
       </c>
       <c r="J10" t="n">
         <v>268.0842300415039</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>יעל</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>שניידמן</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>א</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>א</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>352.7089904785156</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>347.0449859619141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>19</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>yaelszn@gmail.com</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>369.2940612792969</v>
       </c>
     </row>
   </sheetData>
@@ -947,10 +1145,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1866,49 +2064,377 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +2449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JI12"/>
+  <dimension ref="A1:JI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
@@ -3047,6 +3573,188 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21-01-2025 01-09-36</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>396.380884</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20-01-2025 11-48-52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>460.306043</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>20-01-2025 16-09-00</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1056.962703</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>20-01-2025 22-51-31</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>75.349166</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>20-01-2025 23-47-02</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>759.7572280000001</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>21-01-2025 00-47-38</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>303.961998</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>21-01-2025 00-53-24</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>225.259778</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>21-01-2025 01-00-50</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>331.523732</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>21-01-2025 09-27-15</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>332.369273</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21-01-2025 11-48-31</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>991.248827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21-01-2025 12-18-53</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1066.089874</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="patients_details" sheetId="1" state="visible" r:id="rId1"/>
@@ -503,10 +503,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A11:E11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -764,11 +764,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -970,6 +970,106 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>16</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>moderate</t>
         </is>
@@ -987,10 +1087,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1853,10 +1953,10 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1868,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1880,25 +1980,25 @@
         <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -2500,6 +2600,298 @@
         <v>0</v>
       </c>
       <c r="W20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2515,10 +2907,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JI21"/>
+  <dimension ref="A1:JI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="GH1" workbookViewId="0">
+      <selection activeCell="GH13" sqref="GH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3814,6 +4206,650 @@
       <c r="AS13" t="n">
         <v>521.921847820282</v>
       </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>19-05-2025 21-01-46</t>
+        </is>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>419.2505838871002</v>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>19-05-2025 21-48-20</t>
+        </is>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>109.1312108039856</v>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>19-05-2025 21-52-14</t>
+        </is>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>94.25278878211975</v>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>19-05-2025 21-57-52</t>
+        </is>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>89.88981223106384</v>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>19-05-2025 22-06-19</t>
+        </is>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>93.99870896339417</v>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>19-05-2025 22-13-15</t>
+        </is>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>95.07488346099854</v>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>19-05-2025 22-16-27</t>
+        </is>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>87.68467378616333</v>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>19-05-2025 22-18-44</t>
+        </is>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>62.04362607002258</v>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>19-05-2025 22-20-19</t>
+        </is>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>89.46350073814392</v>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>19-05-2025 22-29-14</t>
+        </is>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>80.37528777122498</v>
+      </c>
+      <c r="CH13" t="inlineStr">
+        <is>
+          <t>19-05-2025 22-30-49</t>
+        </is>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>41.32394337654114</v>
+      </c>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>20-05-2025 00-43-03</t>
+        </is>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>92.47571682929993</v>
+      </c>
+      <c r="CP13" t="inlineStr">
+        <is>
+          <t>20-05-2025 00-46-07</t>
+        </is>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>90.03692150115967</v>
+      </c>
+      <c r="CT13" t="inlineStr">
+        <is>
+          <t>20-05-2025 00-55-44</t>
+        </is>
+      </c>
+      <c r="CU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>64.79024863243103</v>
+      </c>
+      <c r="CX13" t="inlineStr">
+        <is>
+          <t>20-05-2025 01-01-21</t>
+        </is>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>65.43187618255615</v>
+      </c>
+      <c r="DB13" t="inlineStr">
+        <is>
+          <t>20-05-2025 01-04-15</t>
+        </is>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>4</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>65.96787858009338</v>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>03-06-2025 20-23-23</t>
+        </is>
+      </c>
+      <c r="DG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>1.486054464181264</v>
+      </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>03-06-2025 20-27-38</t>
+        </is>
+      </c>
+      <c r="DK13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>1.433844796816508</v>
+      </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>03-06-2025 20-38-34</t>
+        </is>
+      </c>
+      <c r="DO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>1.220779697100322</v>
+      </c>
+      <c r="DR13" t="inlineStr">
+        <is>
+          <t>03-06-2025 20-43-54</t>
+        </is>
+      </c>
+      <c r="DS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>1.123540023962657</v>
+      </c>
+      <c r="DV13" t="inlineStr">
+        <is>
+          <t>03-06-2025 20-53-45</t>
+        </is>
+      </c>
+      <c r="DW13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>4</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>1.174910573164622</v>
+      </c>
+      <c r="DZ13" t="inlineStr">
+        <is>
+          <t>03-06-2025 21-03-34</t>
+        </is>
+      </c>
+      <c r="EA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>1.26922025680542</v>
+      </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>03-06-2025 21-24-29</t>
+        </is>
+      </c>
+      <c r="EE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>1.075232605139415</v>
+      </c>
+      <c r="EH13" t="inlineStr">
+        <is>
+          <t>03-06-2025 21-42-15</t>
+        </is>
+      </c>
+      <c r="EI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>1.120444929599762</v>
+      </c>
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>03-06-2025 21-45-07</t>
+        </is>
+      </c>
+      <c r="EM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>1.121017718315124</v>
+      </c>
+      <c r="EP13" t="inlineStr">
+        <is>
+          <t>03-06-2025 21-47-11</t>
+        </is>
+      </c>
+      <c r="EQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>1.032225871086121</v>
+      </c>
+      <c r="ET13" t="inlineStr">
+        <is>
+          <t>03-06-2025 21-50-14</t>
+        </is>
+      </c>
+      <c r="EU13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>1.08395231962204</v>
+      </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>03-06-2025 21-55-21</t>
+        </is>
+      </c>
+      <c r="EY13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>1.178840525945028</v>
+      </c>
+      <c r="FB13" t="inlineStr">
+        <is>
+          <t>04-06-2025 09-27-55</t>
+        </is>
+      </c>
+      <c r="FC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>1.147717622915904</v>
+      </c>
+      <c r="FF13" t="inlineStr">
+        <is>
+          <t>04-06-2025 09-30-58</t>
+        </is>
+      </c>
+      <c r="FG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>1.034242447217306</v>
+      </c>
+      <c r="FJ13" t="inlineStr">
+        <is>
+          <t>04-06-2025 09-33-24</t>
+        </is>
+      </c>
+      <c r="FK13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>0.9717102885246277</v>
+      </c>
+      <c r="FN13" t="inlineStr">
+        <is>
+          <t>04-06-2025 09-36-33</t>
+        </is>
+      </c>
+      <c r="FO13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>1.538099416097005</v>
+      </c>
+      <c r="FR13" t="inlineStr">
+        <is>
+          <t>09-06-2025 08-50-20</t>
+        </is>
+      </c>
+      <c r="FS13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>4</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>1.780571667353312</v>
+      </c>
+      <c r="FV13" t="inlineStr">
+        <is>
+          <t>09-06-2025 08-54-36</t>
+        </is>
+      </c>
+      <c r="FW13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>1.791487737496694</v>
+      </c>
+      <c r="FZ13" t="inlineStr">
+        <is>
+          <t>09-06-2025 08-57-20</t>
+        </is>
+      </c>
+      <c r="GA13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>9.461676069100697</v>
+      </c>
+      <c r="GD13" t="inlineStr">
+        <is>
+          <t>09-06-2025 09-20-13</t>
+        </is>
+      </c>
+      <c r="GE13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>1.281719390551249</v>
+      </c>
+      <c r="GH13" t="inlineStr">
+        <is>
+          <t>09-06-2025 09-36-11</t>
+        </is>
+      </c>
+      <c r="GI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>9.972417271137237</v>
+      </c>
+      <c r="GL13" t="inlineStr">
+        <is>
+          <t>09-06-2025 16-54-57</t>
+        </is>
+      </c>
+      <c r="GM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>1.159149928887685</v>
+      </c>
+      <c r="GP13" t="inlineStr">
+        <is>
+          <t>09-06-2025 16-57-10</t>
+        </is>
+      </c>
+      <c r="GQ13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="GR13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>1.453423392772675</v>
+      </c>
+      <c r="GT13" t="inlineStr">
+        <is>
+          <t>10-06-2025 13-06-04</t>
+        </is>
+      </c>
+      <c r="GU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>3.401399012406667</v>
+      </c>
+      <c r="GX13" t="inlineStr">
+        <is>
+          <t>11-06-2025 08-44-46</t>
+        </is>
+      </c>
+      <c r="GY13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>4.773102045059204</v>
+      </c>
+      <c r="HB13" t="inlineStr">
+        <is>
+          <t>16-06-2025 17-57-35</t>
+        </is>
+      </c>
+      <c r="HC13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>1.395798476537069</v>
+      </c>
+      <c r="HF13" t="inlineStr">
+        <is>
+          <t>17-06-2025 11-31-05</t>
+        </is>
+      </c>
+      <c r="HG13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>1.726373132069906</v>
+      </c>
+      <c r="HJ13" t="inlineStr">
+        <is>
+          <t>17-06-2025 11-38-08</t>
+        </is>
+      </c>
+      <c r="HK13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>1.4588463306427</v>
+      </c>
+      <c r="HN13" t="inlineStr">
+        <is>
+          <t>17-06-2025 11-56-07</t>
+        </is>
+      </c>
+      <c r="HO13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>1.309636815388997</v>
+      </c>
+      <c r="HR13" t="inlineStr">
+        <is>
+          <t>17-06-2025 13-02-25</t>
+        </is>
+      </c>
+      <c r="HS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>1.15383608341217</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3925,6 +4961,202 @@
       </c>
       <c r="E21" t="n">
         <v>1031.625606</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20-05-2025 08-03-57</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1013.325417995453</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>04-06-2025 08-06-11</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14.85205318927765</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>09-06-2025 11-09-48</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16.90415707826615</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>11-06-2025 09-37-21</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>15.67336087624232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20-05-2025 08-40-54</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>946.1089532375336</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>04-06-2025 08-58-20</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.80713808139165</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10-06-2025 11-35-31</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>16.01208270788193</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>11-06-2025 09-12-07</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>15.64092379013697</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10-06-2025 10-09-25</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.03717645406723</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>11-06-2025 11-06-11</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.96424060662588</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10-06-2025 10-47-44</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.2275904138883</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>11-06-2025 10-37-30</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.96141522328059</v>
       </c>
     </row>
   </sheetData>
